--- a/BDD.xlsx
+++ b/BDD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugolemonnier/Desktop/NEOMA/Financial data and analytics/Project/Financial-Data-Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA2E185-D54D-3245-A071-E22FD1057E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AE0C27-A440-4848-80E9-F65DAE7C3467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="760" windowWidth="19080" windowHeight="18880" xr2:uid="{9CD99D37-BA6F-9E47-9211-73D25D984387}"/>
+    <workbookView xWindow="5140" yWindow="760" windowWidth="25100" windowHeight="18880" xr2:uid="{9CD99D37-BA6F-9E47-9211-73D25D984387}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -80,13 +80,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,8 +115,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,7 +435,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,8 +443,8 @@
     <col min="1" max="1" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
